--- a/database/industries/foroushgah/ofogh/product/yearly.xlsx
+++ b/database/industries/foroushgah/ofogh/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\foroushgah\ofogh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F661B7D-0805-4680-8483-3A47A0FEEC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +294,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -305,7 +306,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -352,6 +353,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -387,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,7 +573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1740,8 +1775,8 @@
       <c r="H62" s="11">
         <v>0</v>
       </c>
-      <c r="I62" s="11" t="s">
-        <v>11</v>
+      <c r="I62" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">

--- a/database/industries/foroushgah/ofogh/product/yearly.xlsx
+++ b/database/industries/foroushgah/ofogh/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F661B7D-0805-4680-8483-3A47A0FEEC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27183075-CA7F-4218-ABC0-907BA5BFB4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -578,12 +578,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -593,7 +593,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -627,7 +627,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -661,7 +661,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -693,7 +693,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -963,7 +963,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -973,7 +973,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -983,7 +983,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1015,7 +1015,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>1473973</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>159500705</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>219461937</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>744670893</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>29516590</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>360433325</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>179558252</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>22</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1694618556</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1341,7 +1341,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1351,7 +1351,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1383,7 +1383,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>297648</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>14177856</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>48223515</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>109244704</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>4981818</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>18</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>4468310</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>55774259</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>50883</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>22</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>237218993</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1689,7 +1689,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1699,7 +1699,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>28</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1731,7 +1731,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>10</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>201936</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>14</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>88889</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>15</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>219735</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>146702</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>17</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1729197501</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>18</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>151383</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>20</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>154742</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>21</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2005,7 +2005,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2015,7 +2015,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2025,7 +2025,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>31</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2057,7 +2057,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>10</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>12</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>14</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>-9665736</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>15</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>-38864994</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>-89729165</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>17</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>-4041728</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>18</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>19</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>-2836491</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>-47146514</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>21</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>-48738</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>22</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>-192333366</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2353,7 +2353,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2363,7 +2363,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2373,7 +2373,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2405,7 +2405,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>12</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>297648</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>14</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>4512120</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>15</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>9358521</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>19515539</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>17</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>940090</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>18</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1631819</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>20</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>8627745</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>21</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>22</v>
       </c>
